--- a/data/checked/china/henan/henanCaseStatistics_202004011.xlsx
+++ b/data/checked/china/henan/henanCaseStatistics_202004011.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\checked\china\henan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA3692E-59AD-41C7-AE95-62B06493A879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10302,16 +10308,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10323,27 +10325,23 @@
       <b/>
       <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFE2C23"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0D0015"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10351,23 +10349,27 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -10375,7 +10377,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10383,154 +10384,10 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10549,194 +10406,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10744,249 +10415,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11022,17 +10454,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11041,64 +10473,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11356,69 +10745,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.9090909090909" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.27272727272727" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.6363636363636" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.90909090909091" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.81818181818182" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.90909090909091" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.18181818181818" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.2727272727273" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.1818181818182" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.90909090909091" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.90625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="5.90625" style="12" customWidth="1"/>
     <col min="13" max="13" width="7" style="12" customWidth="1"/>
-    <col min="14" max="14" width="14.8181818181818" style="12" customWidth="1"/>
-    <col min="15" max="15" width="16.9090909090909" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.54545454545455" style="12" customWidth="1"/>
-    <col min="17" max="17" width="5.27272727272727" style="12" customWidth="1"/>
-    <col min="18" max="18" width="6.72727272727273" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.2727272727273" style="12" customWidth="1"/>
-    <col min="20" max="20" width="15.8181818181818" style="12" customWidth="1"/>
-    <col min="21" max="21" width="22.9090909090909" style="12" customWidth="1"/>
-    <col min="22" max="22" width="18.5454545454545" style="12" customWidth="1"/>
-    <col min="23" max="23" width="7.54545454545455" style="12" customWidth="1"/>
-    <col min="24" max="24" width="9.54545454545454" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.54296875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="5.26953125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="6.7265625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.26953125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="15.81640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="22.90625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="9.54296875" style="12" customWidth="1"/>
     <col min="25" max="25" width="22" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.9090909090909" style="13" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="13" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.6363636363636" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.0909090909091" style="12" customWidth="1"/>
-    <col min="31" max="31" width="7.63636363636364" style="12" customWidth="1"/>
-    <col min="32" max="32" width="18.6363636363636" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="34" max="34" width="20.9090909090909" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.4545454545455" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="31.90625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
+    <col min="31" max="31" width="7.6328125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="18.6328125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.90625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.90625" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.90625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90909090909091" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.9090909090909" style="12"/>
+    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="15" customHeight="1" spans="1:46">
+    <row r="1" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11558,7 +10947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="19.95" customHeight="1" spans="1:42">
+    <row r="2" spans="1:46" ht="19.95" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -11609,7 +10998,7 @@
       </c>
       <c r="AC2" s="13"/>
       <c r="AF2" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG2" s="12" t="s">
         <v>53</v>
@@ -11621,7 +11010,7 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" ht="19.95" customHeight="1" spans="1:42">
+    <row r="3" spans="1:46" ht="19.95" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -11672,7 +11061,7 @@
       </c>
       <c r="AC3" s="13"/>
       <c r="AF3" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>53</v>
@@ -11684,7 +11073,7 @@
       <c r="AO3" s="13"/>
       <c r="AP3" s="13"/>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:42">
+    <row r="4" spans="1:46" ht="19.95" customHeight="1">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -11735,7 +11124,7 @@
       </c>
       <c r="AC4" s="13"/>
       <c r="AF4" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG4" s="12" t="s">
         <v>53</v>
@@ -11747,7 +11136,7 @@
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>
     </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:42">
+    <row r="5" spans="1:46" ht="19.95" customHeight="1">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -11796,7 +11185,7 @@
       </c>
       <c r="AC5" s="13"/>
       <c r="AF5" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG5" s="12" t="s">
         <v>53</v>
@@ -11808,7 +11197,7 @@
       <c r="AO5" s="13"/>
       <c r="AP5" s="13"/>
     </row>
-    <row r="6" ht="19.95" customHeight="1" spans="1:42">
+    <row r="6" spans="1:46" ht="19.95" customHeight="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -11859,7 +11248,7 @@
       </c>
       <c r="AC6" s="13"/>
       <c r="AF6" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG6" s="12" t="s">
         <v>53</v>
@@ -11871,7 +11260,7 @@
       <c r="AO6" s="13"/>
       <c r="AP6" s="13"/>
     </row>
-    <row r="7" ht="19.95" customHeight="1" spans="1:42">
+    <row r="7" spans="1:46" ht="19.95" customHeight="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -11920,7 +11309,7 @@
       </c>
       <c r="AC7" s="13"/>
       <c r="AF7" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG7" s="12" t="s">
         <v>53</v>
@@ -11932,7 +11321,7 @@
       <c r="AO7" s="13"/>
       <c r="AP7" s="13"/>
     </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:42">
+    <row r="8" spans="1:46" ht="19.95" customHeight="1">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -11983,7 +11372,7 @@
       </c>
       <c r="AC8" s="13"/>
       <c r="AF8" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG8" s="12" t="s">
         <v>53</v>
@@ -11995,7 +11384,7 @@
       <c r="AO8" s="13"/>
       <c r="AP8" s="13"/>
     </row>
-    <row r="9" ht="19.95" customHeight="1" spans="1:42">
+    <row r="9" spans="1:46" ht="19.95" customHeight="1">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -12046,7 +11435,7 @@
       </c>
       <c r="AC9" s="13"/>
       <c r="AF9" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG9" s="12" t="s">
         <v>53</v>
@@ -12058,7 +11447,7 @@
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
     </row>
-    <row r="10" ht="19.95" customHeight="1" spans="1:42">
+    <row r="10" spans="1:46" ht="19.95" customHeight="1">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -12109,7 +11498,7 @@
       </c>
       <c r="AC10" s="13"/>
       <c r="AF10" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG10" s="12" t="s">
         <v>53</v>
@@ -12121,7 +11510,7 @@
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
     </row>
-    <row r="11" ht="19.95" customHeight="1" spans="1:42">
+    <row r="11" spans="1:46" ht="19.95" customHeight="1">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -12170,7 +11559,7 @@
       </c>
       <c r="AC11" s="13"/>
       <c r="AF11" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG11" s="12" t="s">
         <v>53</v>
@@ -12182,7 +11571,7 @@
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
     </row>
-    <row r="12" ht="19.95" customHeight="1" spans="1:42">
+    <row r="12" spans="1:46" ht="19.95" customHeight="1">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -12233,7 +11622,7 @@
       </c>
       <c r="AC12" s="13"/>
       <c r="AF12" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG12" s="12" t="s">
         <v>53</v>
@@ -12245,7 +11634,7 @@
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
     </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:42">
+    <row r="13" spans="1:46" ht="19.95" customHeight="1">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -12294,7 +11683,7 @@
       </c>
       <c r="AC13" s="13"/>
       <c r="AF13" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG13" s="12" t="s">
         <v>53</v>
@@ -12306,7 +11695,7 @@
       <c r="AO13" s="13"/>
       <c r="AP13" s="13"/>
     </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:42">
+    <row r="14" spans="1:46" ht="19.95" customHeight="1">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -12357,7 +11746,7 @@
       </c>
       <c r="AC14" s="13"/>
       <c r="AF14" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG14" s="12" t="s">
         <v>53</v>
@@ -12369,7 +11758,7 @@
       <c r="AO14" s="13"/>
       <c r="AP14" s="13"/>
     </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:42">
+    <row r="15" spans="1:46" ht="19.95" customHeight="1">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -12418,7 +11807,7 @@
       </c>
       <c r="AC15" s="13"/>
       <c r="AF15" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG15" s="12" t="s">
         <v>53</v>
@@ -12430,7 +11819,7 @@
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
     </row>
-    <row r="16" ht="19.95" customHeight="1" spans="1:42">
+    <row r="16" spans="1:46" ht="19.95" customHeight="1">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -12481,7 +11870,7 @@
       </c>
       <c r="AC16" s="13"/>
       <c r="AF16" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG16" s="12" t="s">
         <v>53</v>
@@ -12493,7 +11882,7 @@
       <c r="AO16" s="13"/>
       <c r="AP16" s="13"/>
     </row>
-    <row r="17" ht="19.95" customHeight="1" spans="1:42">
+    <row r="17" spans="1:42" ht="19.95" customHeight="1">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -12544,7 +11933,7 @@
       </c>
       <c r="AC17" s="13"/>
       <c r="AF17" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG17" s="12" t="s">
         <v>53</v>
@@ -12556,7 +11945,7 @@
       <c r="AO17" s="13"/>
       <c r="AP17" s="13"/>
     </row>
-    <row r="18" ht="19.95" customHeight="1" spans="1:42">
+    <row r="18" spans="1:42" ht="19.95" customHeight="1">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -12607,7 +11996,7 @@
       </c>
       <c r="AC18" s="13"/>
       <c r="AF18" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG18" s="12" t="s">
         <v>53</v>
@@ -12619,7 +12008,7 @@
       <c r="AO18" s="13"/>
       <c r="AP18" s="13"/>
     </row>
-    <row r="19" ht="19.95" customHeight="1" spans="1:42">
+    <row r="19" spans="1:42" ht="19.95" customHeight="1">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -12670,7 +12059,7 @@
       </c>
       <c r="AC19" s="13"/>
       <c r="AF19" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG19" s="12" t="s">
         <v>53</v>
@@ -12682,7 +12071,7 @@
       <c r="AO19" s="13"/>
       <c r="AP19" s="13"/>
     </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:42">
+    <row r="20" spans="1:42" ht="19.95" customHeight="1">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -12733,7 +12122,7 @@
       </c>
       <c r="AC20" s="13"/>
       <c r="AF20" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG20" s="12" t="s">
         <v>53</v>
@@ -12745,7 +12134,7 @@
       <c r="AO20" s="13"/>
       <c r="AP20" s="13"/>
     </row>
-    <row r="21" ht="19.95" customHeight="1" spans="1:42">
+    <row r="21" spans="1:42" ht="19.95" customHeight="1">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -12796,7 +12185,7 @@
       </c>
       <c r="AC21" s="13"/>
       <c r="AF21" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG21" s="12" t="s">
         <v>53</v>
@@ -12808,7 +12197,7 @@
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
     </row>
-    <row r="22" ht="19.95" customHeight="1" spans="1:42">
+    <row r="22" spans="1:42" ht="19.95" customHeight="1">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -12859,7 +12248,7 @@
       </c>
       <c r="AC22" s="13"/>
       <c r="AF22" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG22" s="12" t="s">
         <v>53</v>
@@ -12871,7 +12260,7 @@
       <c r="AO22" s="13"/>
       <c r="AP22" s="13"/>
     </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:42">
+    <row r="23" spans="1:42" ht="19.95" customHeight="1">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -12922,7 +12311,7 @@
       </c>
       <c r="AC23" s="13"/>
       <c r="AF23" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG23" s="12" t="s">
         <v>53</v>
@@ -12934,7 +12323,7 @@
       <c r="AO23" s="13"/>
       <c r="AP23" s="13"/>
     </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:42">
+    <row r="24" spans="1:42" ht="19.95" customHeight="1">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -12985,7 +12374,7 @@
       </c>
       <c r="AC24" s="13"/>
       <c r="AF24" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG24" s="12" t="s">
         <v>53</v>
@@ -12997,7 +12386,7 @@
       <c r="AO24" s="13"/>
       <c r="AP24" s="13"/>
     </row>
-    <row r="25" ht="19.95" customHeight="1" spans="1:42">
+    <row r="25" spans="1:42" ht="19.95" customHeight="1">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -13048,7 +12437,7 @@
       </c>
       <c r="AC25" s="13"/>
       <c r="AF25" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG25" s="12" t="s">
         <v>53</v>
@@ -13060,7 +12449,7 @@
       <c r="AO25" s="13"/>
       <c r="AP25" s="13"/>
     </row>
-    <row r="26" ht="19.95" customHeight="1" spans="1:42">
+    <row r="26" spans="1:42" ht="19.95" customHeight="1">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -13111,7 +12500,7 @@
       </c>
       <c r="AC26" s="13"/>
       <c r="AF26" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG26" s="12" t="s">
         <v>53</v>
@@ -13123,7 +12512,7 @@
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
     </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:42">
+    <row r="27" spans="1:42" ht="19.95" customHeight="1">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -13174,7 +12563,7 @@
       </c>
       <c r="AC27" s="13"/>
       <c r="AF27" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG27" s="12" t="s">
         <v>53</v>
@@ -13186,7 +12575,7 @@
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
     </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:42">
+    <row r="28" spans="1:42" ht="19.95" customHeight="1">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -13237,7 +12626,7 @@
       </c>
       <c r="AC28" s="13"/>
       <c r="AF28" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG28" s="12" t="s">
         <v>53</v>
@@ -13249,7 +12638,7 @@
       <c r="AO28" s="13"/>
       <c r="AP28" s="13"/>
     </row>
-    <row r="29" ht="19.95" customHeight="1" spans="1:42">
+    <row r="29" spans="1:42" ht="19.95" customHeight="1">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -13298,7 +12687,7 @@
       </c>
       <c r="AC29" s="13"/>
       <c r="AF29" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG29" s="12" t="s">
         <v>53</v>
@@ -13310,7 +12699,7 @@
       <c r="AO29" s="13"/>
       <c r="AP29" s="13"/>
     </row>
-    <row r="30" ht="19.95" customHeight="1" spans="1:42">
+    <row r="30" spans="1:42" ht="19.95" customHeight="1">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -13359,7 +12748,7 @@
       </c>
       <c r="AC30" s="13"/>
       <c r="AF30" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG30" s="12" t="s">
         <v>53</v>
@@ -13371,7 +12760,7 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
     </row>
-    <row r="31" ht="19.95" customHeight="1" spans="1:42">
+    <row r="31" spans="1:42" ht="19.95" customHeight="1">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -13422,7 +12811,7 @@
       </c>
       <c r="AC31" s="13"/>
       <c r="AF31" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG31" s="12" t="s">
         <v>53</v>
@@ -13434,7 +12823,7 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
     </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:42">
+    <row r="32" spans="1:42" ht="19.95" customHeight="1">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -13485,7 +12874,7 @@
       </c>
       <c r="AC32" s="13"/>
       <c r="AF32" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG32" s="12" t="s">
         <v>53</v>
@@ -13497,7 +12886,7 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
     </row>
-    <row r="33" ht="19.95" customHeight="1" spans="1:42">
+    <row r="33" spans="1:42" ht="19.95" customHeight="1">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -13548,7 +12937,7 @@
       </c>
       <c r="AC33" s="13"/>
       <c r="AF33" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG33" s="12" t="s">
         <v>53</v>
@@ -13560,7 +12949,7 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
     </row>
-    <row r="34" ht="19.95" customHeight="1" spans="1:42">
+    <row r="34" spans="1:42" ht="19.95" customHeight="1">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -13611,7 +13000,7 @@
       </c>
       <c r="AC34" s="13"/>
       <c r="AF34" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG34" s="12" t="s">
         <v>53</v>
@@ -13623,7 +13012,7 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
     </row>
-    <row r="35" ht="19.95" customHeight="1" spans="1:42">
+    <row r="35" spans="1:42" ht="19.95" customHeight="1">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -13674,7 +13063,7 @@
       </c>
       <c r="AC35" s="13"/>
       <c r="AF35" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG35" s="12" t="s">
         <v>53</v>
@@ -13686,7 +13075,7 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
     </row>
-    <row r="36" ht="19.95" customHeight="1" spans="1:42">
+    <row r="36" spans="1:42" ht="19.95" customHeight="1">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -13737,7 +13126,7 @@
       </c>
       <c r="AC36" s="13"/>
       <c r="AF36" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG36" s="12" t="s">
         <v>53</v>
@@ -13749,7 +13138,7 @@
       <c r="AO36" s="13"/>
       <c r="AP36" s="13"/>
     </row>
-    <row r="37" ht="19.95" customHeight="1" spans="1:42">
+    <row r="37" spans="1:42" ht="19.95" customHeight="1">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -13800,7 +13189,7 @@
       </c>
       <c r="AC37" s="13"/>
       <c r="AF37" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG37" s="12" t="s">
         <v>53</v>
@@ -13812,7 +13201,7 @@
       <c r="AO37" s="13"/>
       <c r="AP37" s="13"/>
     </row>
-    <row r="38" ht="19.95" customHeight="1" spans="1:42">
+    <row r="38" spans="1:42" ht="19.95" customHeight="1">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -13863,7 +13252,7 @@
       </c>
       <c r="AC38" s="13"/>
       <c r="AF38" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG38" s="12" t="s">
         <v>53</v>
@@ -13875,7 +13264,7 @@
       <c r="AO38" s="13"/>
       <c r="AP38" s="13"/>
     </row>
-    <row r="39" ht="19.95" customHeight="1" spans="1:42">
+    <row r="39" spans="1:42" ht="19.95" customHeight="1">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -13926,7 +13315,7 @@
       </c>
       <c r="AC39" s="13"/>
       <c r="AF39" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG39" s="12" t="s">
         <v>53</v>
@@ -13938,7 +13327,7 @@
       <c r="AO39" s="13"/>
       <c r="AP39" s="13"/>
     </row>
-    <row r="40" ht="19.95" customHeight="1" spans="1:42">
+    <row r="40" spans="1:42" ht="19.95" customHeight="1">
       <c r="A40" s="16">
         <v>38</v>
       </c>
@@ -13989,7 +13378,7 @@
       </c>
       <c r="AC40" s="13"/>
       <c r="AF40" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG40" s="12" t="s">
         <v>53</v>
@@ -14001,7 +13390,7 @@
       <c r="AO40" s="13"/>
       <c r="AP40" s="13"/>
     </row>
-    <row r="41" ht="19.95" customHeight="1" spans="1:42">
+    <row r="41" spans="1:42" ht="19.95" customHeight="1">
       <c r="A41" s="16">
         <v>39</v>
       </c>
@@ -14052,7 +13441,7 @@
       </c>
       <c r="AC41" s="13"/>
       <c r="AF41" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG41" s="12" t="s">
         <v>53</v>
@@ -14064,7 +13453,7 @@
       <c r="AO41" s="13"/>
       <c r="AP41" s="13"/>
     </row>
-    <row r="42" ht="19.95" customHeight="1" spans="1:42">
+    <row r="42" spans="1:42" ht="19.95" customHeight="1">
       <c r="A42" s="16">
         <v>40</v>
       </c>
@@ -14113,7 +13502,7 @@
       </c>
       <c r="AC42" s="13"/>
       <c r="AF42" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG42" s="12" t="s">
         <v>53</v>
@@ -14125,7 +13514,7 @@
       <c r="AO42" s="13"/>
       <c r="AP42" s="13"/>
     </row>
-    <row r="43" ht="19.95" customHeight="1" spans="1:42">
+    <row r="43" spans="1:42" ht="19.95" customHeight="1">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -14178,7 +13567,7 @@
       </c>
       <c r="AC43" s="13"/>
       <c r="AF43" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG43" s="12" t="s">
         <v>53</v>
@@ -14190,7 +13579,7 @@
       <c r="AO43" s="13"/>
       <c r="AP43" s="13"/>
     </row>
-    <row r="44" ht="19.95" customHeight="1" spans="1:42">
+    <row r="44" spans="1:42" ht="19.95" customHeight="1">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -14243,7 +13632,7 @@
       </c>
       <c r="AC44" s="13"/>
       <c r="AF44" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG44" s="12" t="s">
         <v>53</v>
@@ -14255,7 +13644,7 @@
       <c r="AO44" s="13"/>
       <c r="AP44" s="13"/>
     </row>
-    <row r="45" ht="19.95" customHeight="1" spans="1:42">
+    <row r="45" spans="1:42" ht="19.95" customHeight="1">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -14308,7 +13697,7 @@
       </c>
       <c r="AC45" s="13"/>
       <c r="AF45" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG45" s="12" t="s">
         <v>53</v>
@@ -14320,7 +13709,7 @@
       <c r="AO45" s="13"/>
       <c r="AP45" s="13"/>
     </row>
-    <row r="46" ht="19.95" customHeight="1" spans="1:42">
+    <row r="46" spans="1:42" ht="19.95" customHeight="1">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -14373,7 +13762,7 @@
       </c>
       <c r="AC46" s="13"/>
       <c r="AF46" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG46" s="12" t="s">
         <v>53</v>
@@ -14385,7 +13774,7 @@
       <c r="AO46" s="13"/>
       <c r="AP46" s="13"/>
     </row>
-    <row r="47" ht="19.95" customHeight="1" spans="1:42">
+    <row r="47" spans="1:42" ht="19.95" customHeight="1">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -14438,7 +13827,7 @@
       </c>
       <c r="AC47" s="13"/>
       <c r="AF47" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG47" s="12" t="s">
         <v>53</v>
@@ -14450,7 +13839,7 @@
       <c r="AO47" s="13"/>
       <c r="AP47" s="13"/>
     </row>
-    <row r="48" ht="19.95" customHeight="1" spans="1:42">
+    <row r="48" spans="1:42" ht="19.95" customHeight="1">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -14503,7 +13892,7 @@
       </c>
       <c r="AC48" s="13"/>
       <c r="AF48" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG48" s="12" t="s">
         <v>53</v>
@@ -14515,7 +13904,7 @@
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
     </row>
-    <row r="49" ht="19.95" customHeight="1" spans="1:42">
+    <row r="49" spans="1:42" ht="19.95" customHeight="1">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -14566,7 +13955,7 @@
       </c>
       <c r="AC49" s="13"/>
       <c r="AF49" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG49" s="12" t="s">
         <v>53</v>
@@ -14578,7 +13967,7 @@
       <c r="AO49" s="13"/>
       <c r="AP49" s="13"/>
     </row>
-    <row r="50" ht="19.95" customHeight="1" spans="1:42">
+    <row r="50" spans="1:42" ht="19.95" customHeight="1">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -14629,7 +14018,7 @@
       </c>
       <c r="AC50" s="13"/>
       <c r="AF50" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG50" s="12" t="s">
         <v>53</v>
@@ -14641,7 +14030,7 @@
       <c r="AO50" s="13"/>
       <c r="AP50" s="13"/>
     </row>
-    <row r="51" ht="19.95" customHeight="1" spans="1:42">
+    <row r="51" spans="1:42" ht="19.95" customHeight="1">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -14690,7 +14079,7 @@
       </c>
       <c r="AC51" s="13"/>
       <c r="AF51" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG51" s="12" t="s">
         <v>53</v>
@@ -14702,7 +14091,7 @@
       <c r="AO51" s="13"/>
       <c r="AP51" s="13"/>
     </row>
-    <row r="52" ht="19.95" customHeight="1" spans="1:42">
+    <row r="52" spans="1:42" ht="19.95" customHeight="1">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -14751,7 +14140,7 @@
       </c>
       <c r="AC52" s="13"/>
       <c r="AF52" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG52" s="12" t="s">
         <v>53</v>
@@ -14763,7 +14152,7 @@
       <c r="AO52" s="13"/>
       <c r="AP52" s="13"/>
     </row>
-    <row r="53" ht="19.95" customHeight="1" spans="1:42">
+    <row r="53" spans="1:42" ht="19.95" customHeight="1">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -14812,7 +14201,7 @@
       </c>
       <c r="AC53" s="13"/>
       <c r="AF53" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG53" s="12" t="s">
         <v>53</v>
@@ -14824,7 +14213,7 @@
       <c r="AO53" s="13"/>
       <c r="AP53" s="13"/>
     </row>
-    <row r="54" ht="19.95" customHeight="1" spans="1:42">
+    <row r="54" spans="1:42" ht="19.95" customHeight="1">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -14873,7 +14262,7 @@
       </c>
       <c r="AC54" s="13"/>
       <c r="AF54" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG54" s="12" t="s">
         <v>53</v>
@@ -14885,7 +14274,7 @@
       <c r="AO54" s="13"/>
       <c r="AP54" s="13"/>
     </row>
-    <row r="55" ht="19.95" customHeight="1" spans="1:42">
+    <row r="55" spans="1:42" ht="19.95" customHeight="1">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -14943,7 +14332,7 @@
       </c>
       <c r="AC55" s="13"/>
       <c r="AF55" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG55" s="12" t="s">
         <v>53</v>
@@ -14955,7 +14344,7 @@
       <c r="AO55" s="13"/>
       <c r="AP55" s="13"/>
     </row>
-    <row r="56" ht="19.95" customHeight="1" spans="1:42">
+    <row r="56" spans="1:42" ht="19.95" customHeight="1">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -15006,7 +14395,7 @@
       </c>
       <c r="AC56" s="13"/>
       <c r="AF56" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG56" s="12" t="s">
         <v>53</v>
@@ -15018,7 +14407,7 @@
       <c r="AO56" s="13"/>
       <c r="AP56" s="13"/>
     </row>
-    <row r="57" ht="19.95" customHeight="1" spans="1:42">
+    <row r="57" spans="1:42" ht="19.95" customHeight="1">
       <c r="A57" s="16">
         <v>54</v>
       </c>
@@ -15069,7 +14458,7 @@
       </c>
       <c r="AC57" s="13"/>
       <c r="AF57" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG57" s="12" t="s">
         <v>53</v>
@@ -15081,7 +14470,7 @@
       <c r="AO57" s="13"/>
       <c r="AP57" s="13"/>
     </row>
-    <row r="58" ht="19.95" customHeight="1" spans="1:42">
+    <row r="58" spans="1:42" ht="19.95" customHeight="1">
       <c r="A58" s="16">
         <v>54</v>
       </c>
@@ -15107,10 +14496,9 @@
         <v>107</v>
       </c>
       <c r="I58" s="16"/>
-      <c r="J58" s="16">
+      <c r="K58" s="16">
         <v>1</v>
       </c>
-      <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
@@ -15142,7 +14530,7 @@
       </c>
       <c r="AC58" s="13"/>
       <c r="AF58" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG58" s="12" t="s">
         <v>53</v>
@@ -15154,7 +14542,7 @@
       <c r="AO58" s="13"/>
       <c r="AP58" s="13"/>
     </row>
-    <row r="59" ht="19.95" customHeight="1" spans="1:42">
+    <row r="59" spans="1:42" ht="19.95" customHeight="1">
       <c r="A59" s="16">
         <v>54</v>
       </c>
@@ -15177,10 +14565,9 @@
         <v>108</v>
       </c>
       <c r="I59" s="16"/>
-      <c r="J59" s="16">
+      <c r="K59" s="16">
         <v>1</v>
       </c>
-      <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -15212,7 +14599,7 @@
       </c>
       <c r="AC59" s="13"/>
       <c r="AF59" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG59" s="12" t="s">
         <v>53</v>
@@ -15224,7 +14611,7 @@
       <c r="AO59" s="13"/>
       <c r="AP59" s="13"/>
     </row>
-    <row r="60" ht="19.95" customHeight="1" spans="1:42">
+    <row r="60" spans="1:42" ht="19.95" customHeight="1">
       <c r="A60" s="16">
         <v>55</v>
       </c>
@@ -15246,10 +14633,9 @@
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="16">
+      <c r="K60" s="16">
         <v>1</v>
       </c>
-      <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
@@ -15284,7 +14670,7 @@
       </c>
       <c r="AC60" s="13"/>
       <c r="AF60" s="13">
-        <v>43933.4340277778</v>
+        <v>43933.434027777803</v>
       </c>
       <c r="AG60" s="12" t="s">
         <v>53</v>
@@ -15297,53 +14683,60 @@
       <c r="AP60" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H38 H40:H55 H60:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H38 H40:H55 H60:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($F60)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W62:W1048576 X61:X1048576 I61:V1048576 I2:X60">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W62:W1048576 X61:X1048576 I61:V1048576 I2:X57 I58:I60 K58:X60" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -39768,7 +39161,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>48</v>
       </c>
@@ -62627,8 +62020,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>